--- a/data/trans_dic/P22$concerIndv-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerIndv-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.02777398475228954</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.05488312074259774</v>
+        <v>0.05488312074259775</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.02199349380677025</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.008333824079423393</v>
+        <v>0.008210749408433523</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00403732016407685</v>
+        <v>0.004197150981363014</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02243532394138549</v>
+        <v>0.02135406477588314</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01609456316717408</v>
+        <v>0.0133869710692509</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01564114025663669</v>
+        <v>0.01431292520461712</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01988969726962229</v>
+        <v>0.02007196026618199</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01470665168915733</v>
+        <v>0.01484400236917911</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02577481620450532</v>
+        <v>0.02800651054929867</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01411911616836514</v>
+        <v>0.01386312018814696</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01319714016985058</v>
+        <v>0.01413836149788363</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02334295712828412</v>
+        <v>0.02173942217219746</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02552665828070491</v>
+        <v>0.02737762260504403</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03048465768432455</v>
+        <v>0.03146242921784228</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02329221477725165</v>
+        <v>0.02407753137982933</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06078583002187062</v>
+        <v>0.06194031310331881</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07824784875332184</v>
+        <v>0.08047159126736063</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04760928882454237</v>
+        <v>0.04486861998405611</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05817253776389509</v>
+        <v>0.05832460669451354</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.04714201731582457</v>
+        <v>0.04853376184026727</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09470368431861052</v>
+        <v>0.09980195647250731</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03305208419416516</v>
+        <v>0.03201412859709277</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03423420778695147</v>
+        <v>0.03449149887565035</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04950149094623754</v>
+        <v>0.04788090610609699</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07130999560898815</v>
+        <v>0.07197814326088603</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.05437896751112627</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.06976510650555913</v>
+        <v>0.06976510650555914</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01051276906057915</v>
+        <v>0.01031888868041207</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02528790505553592</v>
+        <v>0.02717164382494606</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01579797104971802</v>
+        <v>0.01499206789662763</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0186222572380977</v>
+        <v>0.01940647109617296</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03524506776967379</v>
+        <v>0.03591660975500209</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02941794263010529</v>
+        <v>0.02903835596712469</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06350903267841884</v>
+        <v>0.06304618624433117</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07760285342347004</v>
+        <v>0.07472243087613582</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02511870992474782</v>
+        <v>0.02590682163127823</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03154065990949217</v>
+        <v>0.03180918972908069</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04208360659714284</v>
+        <v>0.04067791019883878</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05356349508696043</v>
+        <v>0.05416720923139114</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03142485362459789</v>
+        <v>0.02990884269205062</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05859635612806022</v>
+        <v>0.05982568090283374</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04173588620219411</v>
+        <v>0.0416499856764577</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06712165207218472</v>
+        <v>0.06945283782802042</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07206236181135448</v>
+        <v>0.0722186259097005</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0629119838684144</v>
+        <v>0.06247875605355027</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1099571191030503</v>
+        <v>0.110168486164573</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1328847570191843</v>
+        <v>0.1306983726412349</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04533498925415825</v>
+        <v>0.04544447775582715</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05439592033337787</v>
+        <v>0.05399339841769601</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.06974692539086297</v>
+        <v>0.06883841304159169</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0913844414898755</v>
+        <v>0.09336159631737433</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02759141944094108</v>
+        <v>0.02785904687433465</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03615809066129902</v>
+        <v>0.03701761477306794</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03986591485096357</v>
+        <v>0.03887399006765507</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06757592718681378</v>
+        <v>0.06481387194068092</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0276210923745472</v>
+        <v>0.02900829372170395</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02216789558147559</v>
+        <v>0.02066384911140853</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0373905349572357</v>
+        <v>0.03880151017505651</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07138649700601871</v>
+        <v>0.06935628054321216</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03133651738486463</v>
+        <v>0.03173094700896497</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03214312407084582</v>
+        <v>0.03297258578102102</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04221981935378714</v>
+        <v>0.04381717154672506</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07492217396235144</v>
+        <v>0.07589747933219353</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06017469700416352</v>
+        <v>0.05991496805548667</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07396920986478937</v>
+        <v>0.07275855023723755</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07449742150120901</v>
+        <v>0.07492809639959466</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1159532155918343</v>
+        <v>0.1198400549671336</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06069772198682161</v>
+        <v>0.06068351941408641</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05156763097734043</v>
+        <v>0.04976979600198089</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07586664571201408</v>
+        <v>0.07359326160077007</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1114492150359972</v>
+        <v>0.1107419851361343</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05529317534211724</v>
+        <v>0.05447087202423362</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05556509727050703</v>
+        <v>0.0554477271391212</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06783781924767575</v>
+        <v>0.07035108848495693</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1072289940195124</v>
+        <v>0.1083005452525003</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.03720896965382391</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.08683770512019361</v>
+        <v>0.08683770512019359</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03841811655449957</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02596282846130839</v>
+        <v>0.02602351976969359</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01733459180955965</v>
+        <v>0.01642653774883462</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02243493464123814</v>
+        <v>0.02361159702918574</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06685523773688348</v>
+        <v>0.0667422698019815</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.023624587935659</v>
+        <v>0.02398438812222972</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02776753372234221</v>
+        <v>0.02763893053827295</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02542546927746784</v>
+        <v>0.02834853468602762</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09759251173551826</v>
+        <v>0.09841895423296268</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02907196592032917</v>
+        <v>0.02861764330343067</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02482660694179935</v>
+        <v>0.02575909368944141</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02928291869135571</v>
+        <v>0.02992826714716118</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.08908566152137427</v>
+        <v>0.08925489071721657</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06269760177989615</v>
+        <v>0.06293699670345851</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04420070554680403</v>
+        <v>0.04476954736347728</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05754342715918286</v>
+        <v>0.05652888530591136</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.111761665373024</v>
+        <v>0.1116914777882948</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05960235093087599</v>
+        <v>0.0604085494071522</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06491594545367632</v>
+        <v>0.06357580729261256</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06057981870786904</v>
+        <v>0.0596591888767496</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1365619593867908</v>
+        <v>0.136825129375398</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05304196442725328</v>
+        <v>0.05370075195242709</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04783353606368992</v>
+        <v>0.04926870927533804</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05033456196287909</v>
+        <v>0.05249239408013748</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1168470460835754</v>
+        <v>0.118530794015478</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.02332369695984904</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.07259614849252106</v>
+        <v>0.07259614849252105</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.06060343259242229</v>
@@ -1229,7 +1229,7 @@
         <v>0.0351553563040235</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.09089460501872222</v>
+        <v>0.09089460501872226</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.05135072626253671</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0236938680950311</v>
+        <v>0.02524311424862313</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01372944701307397</v>
+        <v>0.01506367456635328</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01153452766414517</v>
+        <v>0.01144282245920339</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05441474962072353</v>
+        <v>0.05311918812008731</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03868760237537059</v>
+        <v>0.03982585155763522</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02188503801635369</v>
+        <v>0.02113201907909464</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01908834307674047</v>
+        <v>0.02009671434323423</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07410774565094869</v>
+        <v>0.07427299673907869</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03812428641412957</v>
+        <v>0.0366148485022486</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.02092796399737301</v>
+        <v>0.02192855822708622</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01909465963501981</v>
+        <v>0.01859793475052905</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07000385904786147</v>
+        <v>0.06976719410538322</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06739426354880078</v>
+        <v>0.06978716662344486</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05472194120029854</v>
+        <v>0.05829208316600293</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04118543078531486</v>
+        <v>0.04051427535371842</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09502397154569869</v>
+        <v>0.09337266979845307</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08783829496538048</v>
+        <v>0.08746095517800649</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06503026890430516</v>
+        <v>0.06600886594588143</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05903591956764234</v>
+        <v>0.05822009148658407</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1114303133493663</v>
+        <v>0.1103781899837704</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06927728293826921</v>
+        <v>0.06868613983606581</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0510519961669241</v>
+        <v>0.04924254595552498</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04236438727107134</v>
+        <v>0.04192121619804001</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09632522482106677</v>
+        <v>0.09724393474412965</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.03175910846434656</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.06288902941004144</v>
+        <v>0.06288902941004143</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.0194570656767537</v>
@@ -1377,7 +1377,7 @@
         <v>0.02789574122456813</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.0676258311803988</v>
+        <v>0.06762583118039882</v>
       </c>
     </row>
     <row r="20">
@@ -1391,37 +1391,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01342764864129938</v>
+        <v>0.01359784237636174</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01038265408036513</v>
+        <v>0.009540273375849876</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05188900251700361</v>
+        <v>0.05268070476871869</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01460930034871451</v>
+        <v>0.01493803408898904</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.005425542318555936</v>
+        <v>0.005454383836459559</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.0166215763457627</v>
+        <v>0.0170983700517541</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04687076741013621</v>
+        <v>0.04705882683242124</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0104715862464119</v>
+        <v>0.01001596832713165</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01255182624717529</v>
+        <v>0.0121930992138862</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01713015109655222</v>
+        <v>0.01686412388516292</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.05497487823454116</v>
+        <v>0.05388135726492809</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03094144011586746</v>
+        <v>0.03055028262039304</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05882689950990842</v>
+        <v>0.06030393952210285</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0460714058337487</v>
+        <v>0.049981231217431</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.09843075614904916</v>
+        <v>0.09997993806088444</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05127656506450561</v>
+        <v>0.0493409545767946</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.04188693572364566</v>
+        <v>0.03743853742816416</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.05899897117080597</v>
+        <v>0.05977223186024333</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.08177337786703186</v>
+        <v>0.08157450113475664</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03389145213409209</v>
+        <v>0.03423944261343673</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.03799695601767395</v>
+        <v>0.03736815236716604</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.04525070233120221</v>
+        <v>0.04378241744413117</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.08209575538200979</v>
+        <v>0.0818598325483602</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.01870214298285324</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.04193045890793312</v>
+        <v>0.04193045890793311</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.01398622674324483</v>
@@ -1513,7 +1513,7 @@
         <v>0.01476305808944197</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.03756365713813735</v>
+        <v>0.03756365713813734</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.006593456919051343</v>
+        <v>0.004654207652205776</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.004192284408741439</v>
+        <v>0.00423385596183193</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01802405573179594</v>
+        <v>0.01619922041780017</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.003400488541971268</v>
+        <v>0.00339549012073149</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.002729791960627785</v>
+        <v>0.005243957819838875</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.006809779267461982</v>
+        <v>0.006452289879446542</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02999477881992163</v>
+        <v>0.02942654648363985</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.006232272735733112</v>
+        <v>0.00612601693426156</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.005189152620307651</v>
+        <v>0.005162270054873221</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.006086470270026187</v>
+        <v>0.006082551685373029</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02862669048429843</v>
+        <v>0.02739087700711747</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04828457454055033</v>
+        <v>0.04552582303164603</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05272213256884464</v>
+        <v>0.05216525156620645</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02764555829064802</v>
+        <v>0.03332489584297702</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05156040303170076</v>
+        <v>0.04846606371973536</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02820804339087744</v>
+        <v>0.02877536538101279</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02451363174890208</v>
+        <v>0.02672442725336985</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04181213181875022</v>
+        <v>0.04122810290925853</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.05625607919237378</v>
+        <v>0.05723658002172954</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02895232974398306</v>
+        <v>0.02986376207506524</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02711595392379063</v>
+        <v>0.02668905496163677</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.03199311744055517</v>
+        <v>0.02979323108875042</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.05051085027432668</v>
+        <v>0.04948429581879546</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.03921577079083025</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.07526811528232438</v>
+        <v>0.07526811528232434</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02252599278577135</v>
+        <v>0.02255433086277019</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02676718375725171</v>
+        <v>0.02640231008742972</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02791240989728044</v>
+        <v>0.02716589645833522</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05719604379402483</v>
+        <v>0.05711241735388319</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.03277391552490743</v>
+        <v>0.0326707690948568</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02745282753182927</v>
+        <v>0.02725751185358634</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.0369159570874145</v>
+        <v>0.03810668278311024</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.07655904837284976</v>
+        <v>0.07686084181394559</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02958888213217725</v>
+        <v>0.02964086655360973</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.02870493511344608</v>
+        <v>0.02855025011748182</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.0343889600039972</v>
+        <v>0.03491728187818138</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.0692934127881901</v>
+        <v>0.06935280074348144</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03389527467715938</v>
+        <v>0.03367560297865173</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.0400822250879378</v>
+        <v>0.03907096047496042</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04063544269262302</v>
+        <v>0.03974342353299454</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.07500952627352894</v>
+        <v>0.0764245130160851</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.04716834964403122</v>
+        <v>0.04647818735689761</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04048626710301031</v>
+        <v>0.04015192021710382</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.05162134579567989</v>
+        <v>0.05217590359801395</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.09269819528655363</v>
+        <v>0.09270786462117087</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0383096186993904</v>
+        <v>0.03859628363265374</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.03841486433189305</v>
+        <v>0.03749156722390683</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.04428385899146866</v>
+        <v>0.04440655538373068</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.08147794043465999</v>
+        <v>0.0814050508829605</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4110</v>
+        <v>4049</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1830</v>
+        <v>1902</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9369</v>
+        <v>8918</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6563</v>
+        <v>5459</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7312</v>
+        <v>6691</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8557</v>
+        <v>8636</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5820</v>
+        <v>5875</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9344</v>
+        <v>10153</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>13563</v>
+        <v>13317</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>11658</v>
+        <v>12490</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>18986</v>
+        <v>17682</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>19663</v>
+        <v>21089</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15033</v>
+        <v>15515</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10555</v>
+        <v>10911</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>25385</v>
+        <v>25867</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>31909</v>
+        <v>32816</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>22257</v>
+        <v>20976</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>25028</v>
+        <v>25093</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>18657</v>
+        <v>19207</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>34331</v>
+        <v>36179</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>31751</v>
+        <v>30754</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>30242</v>
+        <v>30470</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>40263</v>
+        <v>38945</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>54930</v>
+        <v>55445</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7706</v>
+        <v>7564</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>17375</v>
+        <v>18669</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9329</v>
+        <v>8853</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>8881</v>
+        <v>9255</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>22046</v>
+        <v>22466</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>17952</v>
+        <v>17721</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>35672</v>
+        <v>35412</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>38803</v>
+        <v>37362</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>34123</v>
+        <v>35194</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>40919</v>
+        <v>41267</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>48488</v>
+        <v>46868</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>52327</v>
+        <v>52916</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>23034</v>
+        <v>21923</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>40261</v>
+        <v>41105</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24645</v>
+        <v>24594</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>32010</v>
+        <v>33121</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>45075</v>
+        <v>45172</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>38392</v>
+        <v>38128</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>61761</v>
+        <v>61880</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>66445</v>
+        <v>65351</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>61586</v>
+        <v>61735</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>70570</v>
+        <v>70048</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>80361</v>
+        <v>79314</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>89274</v>
+        <v>91206</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17622</v>
+        <v>17793</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>24655</v>
+        <v>25241</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>26637</v>
+        <v>25974</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>41954</v>
+        <v>40239</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>19051</v>
+        <v>20008</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>15758</v>
+        <v>14689</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>24730</v>
+        <v>25663</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>44412</v>
+        <v>43149</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>41628</v>
+        <v>42152</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>44766</v>
+        <v>45921</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>56133</v>
+        <v>58257</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>93126</v>
+        <v>94339</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>38432</v>
+        <v>38266</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>50437</v>
+        <v>49611</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>49776</v>
+        <v>50064</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>71988</v>
+        <v>74401</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>41866</v>
+        <v>41856</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>36657</v>
+        <v>35379</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>50177</v>
+        <v>48674</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>69337</v>
+        <v>68897</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>73452</v>
+        <v>72360</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>77386</v>
+        <v>77223</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>90194</v>
+        <v>93535</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>133283</v>
+        <v>134615</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>13449</v>
+        <v>13481</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10654</v>
+        <v>10096</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14494</v>
+        <v>15254</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>46840</v>
+        <v>46761</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12154</v>
+        <v>12339</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>17110</v>
+        <v>17031</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>16478</v>
+        <v>18373</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>71915</v>
+        <v>72524</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>30016</v>
+        <v>29547</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>30557</v>
+        <v>31705</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>37896</v>
+        <v>38732</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>128061</v>
+        <v>128304</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>32478</v>
+        <v>32602</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>27167</v>
+        <v>27516</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>37176</v>
+        <v>36520</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>78302</v>
+        <v>78253</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30663</v>
+        <v>31078</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>40001</v>
+        <v>39175</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>39262</v>
+        <v>38665</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>100631</v>
+        <v>100825</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>54764</v>
+        <v>55445</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>58874</v>
+        <v>60641</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>65140</v>
+        <v>67933</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>167968</v>
+        <v>170388</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>9163</v>
+        <v>9762</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5896</v>
+        <v>6469</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5488</v>
+        <v>5444</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>33157</v>
+        <v>32368</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>15596</v>
+        <v>16055</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>9800</v>
+        <v>9463</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>9484</v>
+        <v>9985</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>45067</v>
+        <v>45168</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>30112</v>
+        <v>28920</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>18359</v>
+        <v>19236</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>18572</v>
+        <v>18089</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>85228</v>
+        <v>84940</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>26062</v>
+        <v>26987</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>23499</v>
+        <v>25032</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>19595</v>
+        <v>19276</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>57902</v>
+        <v>56896</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>35411</v>
+        <v>35259</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>29121</v>
+        <v>29559</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>29332</v>
+        <v>28927</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>67764</v>
+        <v>67125</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>54719</v>
+        <v>54252</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>44784</v>
+        <v>43197</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>41205</v>
+        <v>40774</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>117274</v>
+        <v>118392</v>
       </c>
     </row>
     <row r="24">
@@ -2914,37 +2914,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4160</v>
+        <v>4212</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3471</v>
+        <v>3190</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>21123</v>
+        <v>21445</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>5010</v>
+        <v>5123</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1921</v>
+        <v>1931</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>6251</v>
+        <v>6430</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>20584</v>
+        <v>20667</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>6655</v>
+        <v>6365</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>8332</v>
+        <v>8094</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>12169</v>
+        <v>11980</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>46522</v>
+        <v>45597</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9053</v>
+        <v>8938</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>18224</v>
+        <v>18681</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>15403</v>
+        <v>16710</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>40069</v>
+        <v>40700</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>17584</v>
+        <v>16921</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>14828</v>
+        <v>13253</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>22187</v>
+        <v>22478</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>35912</v>
+        <v>35825</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>21539</v>
+        <v>21760</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>25222</v>
+        <v>24804</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>32146</v>
+        <v>31103</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>69473</v>
+        <v>69274</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1372</v>
+        <v>968</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1047</v>
+        <v>1058</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>5591</v>
+        <v>5025</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1062</v>
+        <v>2040</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2716</v>
+        <v>2574</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>13936</v>
+        <v>13672</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>3378</v>
+        <v>3320</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>3315</v>
+        <v>3298</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>3992</v>
+        <v>3990</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>22180</v>
+        <v>21223</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>10045</v>
+        <v>9471</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>13173</v>
+        <v>13034</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>7105</v>
+        <v>8564</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>15994</v>
+        <v>15034</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>9419</v>
+        <v>9608</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>9535</v>
+        <v>10395</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>16679</v>
+        <v>16446</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>26137</v>
+        <v>26593</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>15691</v>
+        <v>16185</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>17322</v>
+        <v>17050</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>20984</v>
+        <v>19541</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>39136</v>
+        <v>38341</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>73663</v>
+        <v>73756</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>91699</v>
+        <v>90449</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>94607</v>
+        <v>92077</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>202060</v>
+        <v>201765</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>110683</v>
+        <v>110335</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>97686</v>
+        <v>96991</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>130636</v>
+        <v>134850</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>285830</v>
+        <v>286957</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>196686</v>
+        <v>197032</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>200478</v>
+        <v>199398</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>238253</v>
+        <v>241913</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>503502</v>
+        <v>503933</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>110842</v>
+        <v>110124</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>137314</v>
+        <v>133849</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>137731</v>
+        <v>134708</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>264991</v>
+        <v>269990</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>159296</v>
+        <v>156965</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>144063</v>
+        <v>142873</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>182674</v>
+        <v>184637</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>346085</v>
+        <v>346121</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>254656</v>
+        <v>256561</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>268294</v>
+        <v>261845</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>306806</v>
+        <v>307656</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>592037</v>
+        <v>591507</v>
       </c>
     </row>
     <row r="36">
